--- a/Trabajo Individual/Calibración1.xlsx
+++ b/Trabajo Individual/Calibración1.xlsx
@@ -1,21 +1,142 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario1\Desktop\CIMPA\Github_CIMPA\PRACTICA_CIMPA\Trabajo Individual\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+  <si>
+    <t>NMRSE test</t>
+  </si>
+  <si>
+    <t>NIS test</t>
+  </si>
+  <si>
+    <t>NMRSE Total</t>
+  </si>
+  <si>
+    <t>NIS total</t>
+  </si>
+  <si>
+    <t>Cantón</t>
+  </si>
+  <si>
+    <t>Alajuela</t>
+  </si>
+  <si>
+    <t>Atenas</t>
+  </si>
+  <si>
+    <t>Santa Ana</t>
+  </si>
+  <si>
+    <t>Alajuelita</t>
+  </si>
+  <si>
+    <t>Desamparados</t>
+  </si>
+  <si>
+    <t>San Jose</t>
+  </si>
+  <si>
+    <t>Cañas</t>
+  </si>
+  <si>
+    <t>La Cruz</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Carrillo</t>
+  </si>
+  <si>
+    <t>Nicoya</t>
+  </si>
+  <si>
+    <t>SantaCruz</t>
+  </si>
+  <si>
+    <t>Esparza</t>
+  </si>
+  <si>
+    <t>Montes de Oro</t>
+  </si>
+  <si>
+    <t>Puntarenas</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Matina</t>
+  </si>
+  <si>
+    <t>Perez Zeledón</t>
+  </si>
+  <si>
+    <t>Talamanca</t>
+  </si>
+  <si>
+    <t>Guacimo</t>
+  </si>
+  <si>
+    <t>Pococí</t>
+  </si>
+  <si>
+    <t>Siquirres</t>
+  </si>
+  <si>
+    <t>Sarapiquí</t>
+  </si>
+  <si>
+    <t>Turrialba</t>
+  </si>
+  <si>
+    <t>Garabito</t>
+  </si>
+  <si>
+    <t>Orotina</t>
+  </si>
+  <si>
+    <t>Quepos</t>
+  </si>
+  <si>
+    <t>Corredores</t>
+  </si>
+  <si>
+    <t>Golfito</t>
+  </si>
+  <si>
+    <t>Osa</t>
+  </si>
+  <si>
+    <t>Parrita</t>
+  </si>
+  <si>
+    <t>Upala</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,17 +173,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,7 +239,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +271,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +306,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,480 +482,576 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection sqref="A1:E33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>NMRSE test</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>NIS test</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NMRSE Total</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NIS total</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>0.202744568115697</v>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>22.76185757681944</v>
+        <v>0.20274456811569699</v>
       </c>
       <c r="C2">
-        <v>0.07440940667111136</v>
+        <v>22.761857576819441</v>
       </c>
       <c r="D2">
-        <v>5.744464966180436</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>0.387096461164308</v>
+        <v>7.4409406671111358E-2</v>
+      </c>
+      <c r="E2">
+        <v>5.7444649661804359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>70.30830826618023</v>
+        <v>0.38709646116430801</v>
       </c>
       <c r="C3">
-        <v>0.06600412068424352</v>
+        <v>70.308308266180234</v>
       </c>
       <c r="D3">
+        <v>6.6004120684243522E-2</v>
+      </c>
+      <c r="E3">
         <v>14.56952007687679</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4">
-        <v>0.9272824670646072</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>108.2867048872396</v>
+        <v>0.92728246706460715</v>
       </c>
       <c r="C4">
+        <v>108.28670488723959</v>
+      </c>
+      <c r="D4">
         <v>0.1301539494299552</v>
       </c>
-      <c r="D4">
-        <v>17.33884237135671</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>0.699438671155914</v>
+      <c r="E4">
+        <v>17.338842371356709</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>71.38467403161874</v>
+        <v>0.69943867115591396</v>
       </c>
       <c r="C5">
-        <v>0.08631273623742003</v>
+        <v>71.384674031618744</v>
       </c>
       <c r="D5">
-        <v>12.64374509356504</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
+        <v>8.6312736237420029E-2</v>
+      </c>
+      <c r="E5">
+        <v>12.643745093565039</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
         <v>0.4751369529486284</v>
       </c>
-      <c r="B6">
-        <v>57.34035801686915</v>
-      </c>
       <c r="C6">
-        <v>0.04066870568039881</v>
+        <v>57.340358016869153</v>
       </c>
       <c r="D6">
-        <v>7.217721658434768</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>0.241980305743291</v>
+        <v>4.0668705680398813E-2</v>
+      </c>
+      <c r="E6">
+        <v>7.2177216584347681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>22.62017385890548</v>
+        <v>0.24198030574329099</v>
       </c>
       <c r="C7">
-        <v>0.06570523384082394</v>
+        <v>22.620173858905481</v>
       </c>
       <c r="D7">
-        <v>5.228761282031199</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>0.2326756646351636</v>
+        <v>6.570523384082394E-2</v>
+      </c>
+      <c r="E7">
+        <v>5.2287612820311988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>40.25586775232266</v>
+        <v>0.23267566463516359</v>
       </c>
       <c r="C8">
-        <v>0.02391599150890509</v>
+        <v>40.255867752322658</v>
       </c>
       <c r="D8">
-        <v>5.021452591366009</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
+        <v>2.3915991508905089E-2</v>
+      </c>
+      <c r="E8">
+        <v>5.0214525913660086</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
         <v>1.238493749796056</v>
       </c>
-      <c r="B9">
-        <v>204.4754339911815</v>
-      </c>
       <c r="C9">
-        <v>0.03343814876959078</v>
+        <v>204.47543399118149</v>
       </c>
       <c r="D9">
+        <v>3.3438148769590781E-2</v>
+      </c>
+      <c r="E9">
         <v>13.31749954764061</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10">
-        <v>0.1815222170065746</v>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B10">
+        <v>0.18152221700657459</v>
+      </c>
+      <c r="C10">
         <v>28.46129444000189</v>
       </c>
-      <c r="C10">
-        <v>0.04239445714313454</v>
-      </c>
       <c r="D10">
-        <v>5.633525178960758</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>2.152042040342235</v>
+        <v>4.2394457143134542E-2</v>
+      </c>
+      <c r="E10">
+        <v>5.6335251789607579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B11">
+        <v>2.1520420403422351</v>
+      </c>
+      <c r="C11">
         <v>162.5231026414568</v>
       </c>
-      <c r="C11">
-        <v>0.05524437122167338</v>
-      </c>
       <c r="D11">
-        <v>7.281052778496144</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
+        <v>5.5244371221673381E-2</v>
+      </c>
+      <c r="E11">
+        <v>7.2810527784961439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
         <v>0.5162385763181071</v>
       </c>
-      <c r="B12">
-        <v>85.21963566575479</v>
-      </c>
       <c r="C12">
-        <v>0.01646274431162203</v>
+        <v>85.219635665754794</v>
       </c>
       <c r="D12">
+        <v>1.6462744311622032E-2</v>
+      </c>
+      <c r="E12">
         <v>2.291773338427701</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13">
-        <v>4.979427158378616</v>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>412.4515143874029</v>
+        <v>4.9794271583786163</v>
       </c>
       <c r="C13">
-        <v>0.06990685885361446</v>
+        <v>412.45151438740288</v>
       </c>
       <c r="D13">
-        <v>7.359502939679092</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>1.183565513015811</v>
+        <v>6.9906858853614459E-2</v>
+      </c>
+      <c r="E13">
+        <v>7.3595029396790919</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>94.82363709602039</v>
+        <v>1.1835655130158109</v>
       </c>
       <c r="C14">
-        <v>0.05986683766190015</v>
+        <v>94.823637096020391</v>
       </c>
       <c r="D14">
+        <v>5.9866837661900152E-2</v>
+      </c>
+      <c r="E14">
         <v>11.82343494290348</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15">
-        <v>1.511256654636922</v>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>154.6332346003888</v>
+        <v>1.5112566546369219</v>
       </c>
       <c r="C15">
-        <v>0.06682892084470811</v>
+        <v>154.63323460038879</v>
       </c>
       <c r="D15">
+        <v>6.6828920844708109E-2</v>
+      </c>
+      <c r="E15">
         <v>11.55043627301816</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
         <v>1.260676474880067</v>
       </c>
-      <c r="B16">
-        <v>212.953916354056</v>
-      </c>
       <c r="C16">
-        <v>0.03696553756860148</v>
+        <v>212.95391635405599</v>
       </c>
       <c r="D16">
-        <v>4.666342447885121</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>0.3124588261376658</v>
+        <v>3.6965537568601478E-2</v>
+      </c>
+      <c r="E16">
+        <v>4.6663424478851212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>44.49220198813316</v>
+        <v>0.31245882613766579</v>
       </c>
       <c r="C17">
-        <v>0.02600075929159108</v>
+        <v>44.492201988133161</v>
       </c>
       <c r="D17">
-        <v>4.892493993730925</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>0.9139102243246146</v>
+        <v>2.6000759291591079E-2</v>
+      </c>
+      <c r="E17">
+        <v>4.8924939937309251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>116.6390471678884</v>
+        <v>0.91391022432461455</v>
       </c>
       <c r="C18">
-        <v>0.04209737668388022</v>
+        <v>116.63904716788841</v>
       </c>
       <c r="D18">
-        <v>6.686578678649597</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>0.714710611135092</v>
+        <v>4.2097376683880222E-2</v>
+      </c>
+      <c r="E18">
+        <v>6.6865786786495969</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B19">
+        <v>0.71471061113509204</v>
+      </c>
+      <c r="C19">
         <v>127.3246886324564</v>
       </c>
-      <c r="C19">
-        <v>0.0359060229982266</v>
-      </c>
       <c r="D19">
+        <v>3.5906022998226601E-2</v>
+      </c>
+      <c r="E19">
         <v>13.83963462963456</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
         <v>1.88682507398404</v>
       </c>
-      <c r="B20">
-        <v>262.2115463551016</v>
-      </c>
       <c r="C20">
-        <v>0.0552982435040039</v>
+        <v>262.21154635510158</v>
       </c>
       <c r="D20">
+        <v>5.5298243504003898E-2</v>
+      </c>
+      <c r="E20">
         <v>12.28051101870745</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21">
-        <v>0.2627252801123601</v>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>37.28303259098236</v>
+        <v>0.26272528011236013</v>
       </c>
       <c r="C21">
-        <v>0.03088591852259497</v>
+        <v>37.283032590982359</v>
       </c>
       <c r="D21">
-        <v>4.801703824392889</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
+        <v>3.0885918522594969E-2</v>
+      </c>
+      <c r="E21">
+        <v>4.8017038243928889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
         <v>0.1033172407245154</v>
       </c>
-      <c r="B22">
-        <v>24.68112449457283</v>
-      </c>
       <c r="C22">
-        <v>0.01547295819970844</v>
+        <v>24.681124494572831</v>
       </c>
       <c r="D22">
-        <v>2.468615035462857</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>0.926037341950685</v>
+        <v>1.5472958199708439E-2</v>
+      </c>
+      <c r="E22">
+        <v>2.4686150354628569</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>69.34708592333132</v>
+        <v>0.92603734195068499</v>
       </c>
       <c r="C23">
-        <v>0.09318130761844723</v>
+        <v>69.347085923331321</v>
       </c>
       <c r="D23">
-        <v>4.667288224940061</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>0.1596662561352666</v>
+        <v>9.3181307618447229E-2</v>
+      </c>
+      <c r="E23">
+        <v>4.6672882249400613</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>30.33141339328738</v>
+        <v>0.15966625613526661</v>
       </c>
       <c r="C24">
-        <v>0.0664667173389496</v>
+        <v>30.331413393287381</v>
       </c>
       <c r="D24">
+        <v>6.6466717338949599E-2</v>
+      </c>
+      <c r="E24">
         <v>9.835395036936557</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
         <v>0.4288688024161354</v>
       </c>
-      <c r="B25">
-        <v>103.6414390164746</v>
-      </c>
       <c r="C25">
-        <v>0.0749751049767932</v>
+        <v>103.64143901647461</v>
       </c>
       <c r="D25">
-        <v>24.26629449094816</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>1.626136140813471</v>
+        <v>7.4975104976793203E-2</v>
+      </c>
+      <c r="E25">
+        <v>24.266294490948159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>162.4982488883848</v>
+        <v>1.6261361408134709</v>
       </c>
       <c r="C26">
-        <v>0.03793480196765904</v>
+        <v>162.49824888838481</v>
       </c>
       <c r="D26">
+        <v>3.793480196765904E-2</v>
+      </c>
+      <c r="E26">
         <v>2.695895379969703</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27">
-        <v>1.789082077724866</v>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B27">
+        <v>1.7890820777248659</v>
+      </c>
+      <c r="C27">
         <v>221.1571141799505</v>
       </c>
-      <c r="C27">
-        <v>0.03399981114161799</v>
-      </c>
       <c r="D27">
-        <v>4.209471324974984</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>3.089054649275799</v>
+        <v>3.3999811141617993E-2</v>
+      </c>
+      <c r="E27">
+        <v>4.2094713249749844</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>218.7467349664471</v>
+        <v>3.0890546492757989</v>
       </c>
       <c r="C28">
-        <v>0.1151023229997614</v>
+        <v>218.74673496644709</v>
       </c>
       <c r="D28">
+        <v>0.11510232299976141</v>
+      </c>
+      <c r="E28">
         <v>12.11311236550967</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29">
-        <v>2.031323498777002</v>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B29">
+        <v>2.0313234987770019</v>
+      </c>
+      <c r="C29">
         <v>230.8184410945708</v>
       </c>
-      <c r="C29">
-        <v>0.02199090218003922</v>
-      </c>
       <c r="D29">
+        <v>2.1990902180039219E-2</v>
+      </c>
+      <c r="E29">
         <v>17.68904242241469</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30">
-        <v>0.5865231434663116</v>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>88.23502134439069</v>
+        <v>0.58652314346631163</v>
       </c>
       <c r="C30">
-        <v>0.07056696851007595</v>
+        <v>88.235021344390688</v>
       </c>
       <c r="D30">
-        <v>15.29315066697371</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>0.1330681468459788</v>
+        <v>7.0566968510075948E-2</v>
+      </c>
+      <c r="E30">
+        <v>15.293150666973711</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>34.16378649944184</v>
+        <v>0.13306814684597881</v>
       </c>
       <c r="C31">
-        <v>0.06535852678834894</v>
+        <v>34.163786499441841</v>
       </c>
       <c r="D31">
-        <v>27.79478889817661</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
+        <v>6.5358526788348942E-2</v>
+      </c>
+      <c r="E31">
+        <v>27.794788898176609</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
         <v>1.049878219133823</v>
       </c>
-      <c r="B32">
-        <v>361.1993942853559</v>
-      </c>
       <c r="C32">
-        <v>0.09282606836040357</v>
+        <v>361.19939428535588</v>
       </c>
       <c r="D32">
-        <v>22.78014111315967</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>0.4256029485146665</v>
+        <v>9.2826068360403566E-2</v>
+      </c>
+      <c r="E32">
+        <v>22.780141113159669</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>91.91164271573953</v>
+        <v>0.42560294851466651</v>
       </c>
       <c r="C33">
-        <v>0.0921521106732989</v>
+        <v>91.911642715739532</v>
       </c>
       <c r="D33">
+        <v>9.2152110673298898E-2</v>
+      </c>
+      <c r="E33">
         <v>16.8395890035493</v>
       </c>
     </row>
